--- a/biology/Neurosciences/Sous-cortical/Sous-cortical.xlsx
+++ b/biology/Neurosciences/Sous-cortical/Sous-cortical.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sous-cortical est un terme qui qualifie, en neurosciences, les régions du cerveau situées anatomiquement en dessous de la couche de cortex cérébral. Dans un sens un peu plus précis, il s'agit des noyaux de substance grise du télencéphale qui constituent les ganglions de la base, l'hippocampe (on l'inclut parfois avec l'ensemble formation hippocampique) et le complexe amygdalien. 
